--- a/03.项目管理/集成平台开发交付计划.xlsx
+++ b/03.项目管理/集成平台开发交付计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>备注</t>
   </si>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Spring-MVC框架搭建</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发框架搭建</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1.3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -80,26 +72,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>疏通测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>webservice疏通测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收文档编写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作手册</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收文档、操作手册整理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>计划开始时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -108,22 +80,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>检查申请单信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱执行状态信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查报告信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心电数据库字段核对</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -136,34 +92,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>V2报告数据读取、解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2和XML服务设计书</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2检查申请单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2返回结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     XML检查申请单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     XML查询条件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2查询条件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.1.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -200,50 +128,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     XML返回结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     XML返回结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用1.2.1.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.1.1.4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>复用1.2.1.1.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     XML医嘱执行状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2医嘱执行状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2返回结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）采取心电查询形式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）采取HIS推送形式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱执行状态信息（采取心电推送形式）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.2.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -260,26 +148,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>检查报告信息（采取心电推送形式）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     XML检查报告</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     V2检查报告</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用1.2.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用1.2.2.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2.3.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -296,86 +164,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>标准数据字典整理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2消息读取、解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2申请单数据读取、解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2医嘱执行状态读取、解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      为心电系统提供查询申请单的webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      为心电系统提供推送医嘱执行状态的webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      为心电系统提供推送报告信息的webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）针对心电系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）针对HIS系统(第三方系统)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      为HIS系统（第三方系统）提供推送申请单的webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）针对心电系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     调用心电系统webservice，推送申请单信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）针对HIS系统（第三方系统）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     调用HIS系统（第三方系统）webservice，查询申请单信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     调用HIS系统（第三方系统）webservice，推送医嘱执行状态信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     调用HIS系统（第三方系统）webservice，推送报告信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据间的相互转换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>webservice提供与调用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心电适配器提供webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心电适配器调用webservice</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -484,30 +272,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>检查申请单信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      检查申请单开立</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      检查申请单撤销</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      检查申请单确认</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      医嘱执行状态确认</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      医嘱执行状态发布</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1.1.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -525,22 +289,6 @@
   </si>
   <si>
     <t>1.1.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2数据转普通XML</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王盟、马松</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通XML转V2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1021,7 +769,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,12 +779,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1488,19 +1230,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="187">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
@@ -1531,14 +1260,14 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="15" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0"/>
@@ -1548,7 +1277,7 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="7" borderId="0">
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0">
@@ -1591,62 +1320,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="53" fillId="0" borderId="0"/>
@@ -1677,10 +1406,10 @@
     <xf numFmtId="176" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="56" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="56" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="37" fillId="0" borderId="0"/>
@@ -1720,16 +1449,16 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="47" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="46" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1741,37 +1470,37 @@
     <xf numFmtId="176" fontId="49" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="51" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="54" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="38" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="38" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="57" fillId="0" borderId="0"/>
@@ -1798,6 +1527,9 @@
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,88 +1542,85 @@
     <xf numFmtId="176" fontId="59" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="59" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="59" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="59" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="60" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="62" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="63" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="62" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="63" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="64" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="65" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="65" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="67" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="67" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0">
@@ -1912,16 +1641,16 @@
     <xf numFmtId="176" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="51" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="46" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
@@ -1936,17 +1665,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="65" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1976,21 +1705,9 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2006,33 +1723,9 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2048,6 +1741,10 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="187">
     <cellStyle name="??" xfId="137"/>
@@ -2540,18 +2237,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -2563,1264 +2260,761 @@
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="18">
-        <v>42623</v>
-      </c>
-      <c r="G2" s="18">
-        <v>42644</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="13">
-        <v>3</v>
-      </c>
-      <c r="F3" s="18">
-        <v>42623</v>
-      </c>
-      <c r="G3" s="18">
-        <v>42630</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18">
-        <v>42623</v>
-      </c>
-      <c r="G4" s="18">
-        <v>42623</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>42624</v>
-      </c>
-      <c r="G5" s="18">
-        <v>42624</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>42630</v>
-      </c>
-      <c r="G6" s="18">
-        <v>42630</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
-        <v>42631</v>
-      </c>
-      <c r="G7" s="18">
-        <v>42637</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>42631</v>
-      </c>
-      <c r="G8" s="18">
-        <v>42631</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
-        <v>42637</v>
-      </c>
-      <c r="G9" s="18">
-        <v>42637</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="22" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="18">
-        <v>42638</v>
-      </c>
-      <c r="G10" s="18">
-        <v>42644</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="16">
-        <v>15</v>
-      </c>
-      <c r="F11" s="18">
-        <v>42645</v>
-      </c>
-      <c r="G11" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13">
-        <v>6</v>
-      </c>
-      <c r="F12" s="18">
-        <v>42645</v>
-      </c>
-      <c r="G12" s="18">
-        <v>42659</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="23" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="27" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75">
+      <c r="A55" s="19"/>
+      <c r="B55" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
+      <c r="A56" s="19"/>
+      <c r="B56" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="16">
-        <v>5</v>
-      </c>
-      <c r="F13" s="18">
-        <v>42645</v>
-      </c>
-      <c r="G13" s="18">
-        <v>42659</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>42645</v>
-      </c>
-      <c r="G14" s="18">
-        <v>42651</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="18">
-        <v>42652</v>
-      </c>
-      <c r="G15" s="18">
-        <v>42652</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>42658</v>
-      </c>
-      <c r="G16" s="18">
-        <v>42659</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="18">
-        <v>42652</v>
-      </c>
-      <c r="G17" s="18">
-        <v>42652</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
-        <v>42665</v>
-      </c>
-      <c r="G18" s="18">
-        <v>42665</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="18">
-        <v>42665</v>
-      </c>
-      <c r="G19" s="18">
-        <v>42665</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="18">
-        <v>42665</v>
-      </c>
-      <c r="G21" s="18">
-        <v>42665</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
+      <c r="A57" s="19"/>
+      <c r="B57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="16">
-        <v>5</v>
-      </c>
-      <c r="F23" s="18">
-        <v>42666</v>
-      </c>
-      <c r="G23" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="16">
-        <v>2</v>
-      </c>
-      <c r="F24" s="18">
-        <v>42666</v>
-      </c>
-      <c r="G24" s="18">
-        <v>42672</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="18">
-        <v>42680</v>
-      </c>
-      <c r="G25" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="22" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75">
+      <c r="A58" s="19"/>
+      <c r="B58" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="16">
-        <v>2</v>
-      </c>
-      <c r="F26" s="18">
-        <v>42673</v>
-      </c>
-      <c r="G26" s="18">
-        <v>42679</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75">
+      <c r="A59" s="19"/>
+      <c r="B59" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="18">
-        <v>42680</v>
-      </c>
-      <c r="G27" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75">
+      <c r="A60" s="19"/>
+      <c r="B60" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="16">
-        <v>4</v>
-      </c>
-      <c r="F28" s="18">
-        <v>42686</v>
-      </c>
-      <c r="G28" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75">
+      <c r="A61" s="19"/>
+      <c r="B61" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="16">
-        <v>2</v>
-      </c>
-      <c r="F29" s="18">
-        <v>42686</v>
-      </c>
-      <c r="G29" s="18">
-        <v>42687</v>
-      </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="31"/>
-      <c r="B31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14" t="s">
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75">
+      <c r="A62" s="20"/>
+      <c r="B62" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="16">
-        <v>2</v>
-      </c>
-      <c r="F31" s="18">
-        <v>42693</v>
-      </c>
-      <c r="G31" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="16">
-        <v>5</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="13">
-        <v>10</v>
-      </c>
-      <c r="F34" s="18">
-        <v>42623</v>
-      </c>
-      <c r="G34" s="18">
-        <v>42652</v>
-      </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="13">
-        <v>10</v>
-      </c>
-      <c r="F35" s="18">
-        <v>42623</v>
-      </c>
-      <c r="G35" s="18">
-        <v>42652</v>
-      </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="16">
-        <v>12</v>
-      </c>
-      <c r="F36" s="18">
-        <v>42658</v>
-      </c>
-      <c r="G36" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="16">
-        <v>8</v>
-      </c>
-      <c r="F37" s="18">
-        <v>42658</v>
-      </c>
-      <c r="G37" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="13">
-        <v>6</v>
-      </c>
-      <c r="F38" s="18">
-        <v>42658</v>
-      </c>
-      <c r="G38" s="18">
-        <v>42673</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="16">
-        <v>2</v>
-      </c>
-      <c r="F39" s="18">
-        <v>42658</v>
-      </c>
-      <c r="G39" s="18">
-        <v>42659</v>
-      </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="16">
-        <v>2</v>
-      </c>
-      <c r="F40" s="18">
-        <v>42665</v>
-      </c>
-      <c r="G40" s="18">
-        <v>42666</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="16">
-        <v>2</v>
-      </c>
-      <c r="F41" s="18">
-        <v>42672</v>
-      </c>
-      <c r="G41" s="18">
-        <v>42673</v>
-      </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="16">
-        <v>2</v>
-      </c>
-      <c r="F42" s="18">
-        <v>42679</v>
-      </c>
-      <c r="G42" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="16">
-        <v>2</v>
-      </c>
-      <c r="F43" s="18">
-        <v>42679</v>
-      </c>
-      <c r="G43" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="16">
-        <v>4</v>
-      </c>
-      <c r="F44" s="18">
-        <v>42686</v>
-      </c>
-      <c r="G44" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="16">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18">
-        <v>42686</v>
-      </c>
-      <c r="G45" s="18">
-        <v>42686</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="16">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18">
-        <v>42686</v>
-      </c>
-      <c r="G46" s="18">
-        <v>42686</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="16">
-        <v>3</v>
-      </c>
-      <c r="F47" s="18">
-        <v>42687</v>
-      </c>
-      <c r="G47" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="16">
-        <v>1</v>
-      </c>
-      <c r="F48" s="18">
-        <v>42687</v>
-      </c>
-      <c r="G48" s="18">
-        <v>42687</v>
-      </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1</v>
-      </c>
-      <c r="F49" s="18">
-        <v>42693</v>
-      </c>
-      <c r="G49" s="18">
-        <v>42693</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="16">
-        <v>1</v>
-      </c>
-      <c r="F50" s="18">
-        <v>42694</v>
-      </c>
-      <c r="G50" s="18">
-        <v>42694</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="16">
-        <v>15</v>
-      </c>
-      <c r="F51" s="18">
-        <v>42651</v>
-      </c>
-      <c r="G51" s="18">
-        <v>42700</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="16">
-        <v>5</v>
-      </c>
-      <c r="F52" s="18">
-        <v>42651</v>
-      </c>
-      <c r="G52" s="18">
-        <v>42665</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="16">
-        <v>5</v>
-      </c>
-      <c r="F53" s="18">
-        <v>42666</v>
-      </c>
-      <c r="G53" s="18">
-        <v>42680</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="16">
-        <v>9</v>
-      </c>
-      <c r="F54" s="19">
-        <v>42700</v>
-      </c>
-      <c r="G54" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="31"/>
-      <c r="B55" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="13">
-        <v>3</v>
-      </c>
-      <c r="F55" s="19">
-        <v>42700</v>
-      </c>
-      <c r="G55" s="19">
-        <v>42707</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="31"/>
-      <c r="B56" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="13">
-        <v>3</v>
-      </c>
-      <c r="F56" s="19">
-        <v>42701</v>
-      </c>
-      <c r="G56" s="19">
-        <v>42708</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="31"/>
-      <c r="B57" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="13">
-        <v>3</v>
-      </c>
-      <c r="F57" s="19">
-        <v>42714</v>
-      </c>
-      <c r="G57" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="31"/>
-      <c r="B58" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="13">
-        <v>10</v>
-      </c>
-      <c r="F58" s="19">
-        <v>42687</v>
-      </c>
-      <c r="G58" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="31"/>
-      <c r="B59" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="13">
-        <v>10</v>
-      </c>
-      <c r="F59" s="19">
-        <v>42687</v>
-      </c>
-      <c r="G59" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="31"/>
-      <c r="B60" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="13">
-        <v>10</v>
-      </c>
-      <c r="F60" s="19">
-        <v>42707</v>
-      </c>
-      <c r="G60" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="31"/>
-      <c r="B61" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="13">
-        <v>5</v>
-      </c>
-      <c r="F61" s="19">
-        <v>42707</v>
-      </c>
-      <c r="G61" s="19">
-        <v>42721</v>
-      </c>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="32"/>
-      <c r="B62" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="13">
-        <v>5</v>
-      </c>
-      <c r="F62" s="19">
-        <v>42707</v>
-      </c>
-      <c r="G62" s="19">
-        <v>42721</v>
-      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:A62"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03.项目管理/集成平台开发交付计划.xlsx
+++ b/03.项目管理/集成平台开发交付计划.xlsx
@@ -292,7 +292,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>心电适配器程序</t>
+    <t>集成平台开发交付计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1726,6 +1726,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1741,10 +1745,6 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="187">
     <cellStyle name="??" xfId="137"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2260,10 +2260,10 @@
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2278,734 +2278,734 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="11"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="11"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="12"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="12"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="12"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="12"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="12"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="12"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="12"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="12"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="12"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="12"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="12"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="12"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="12"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="12"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="12"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="12"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="12"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="12"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="12"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="12"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="12"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="11"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="11"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="12"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="12"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="11"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="12"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="12"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="12"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="12"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="12"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="12"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="12"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="12"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="12"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="12"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="12"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="12"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="12"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="12"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="12"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="12"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="19"/>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="11"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="19"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="11"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="11"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="19"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="11"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="19"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="11"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="19"/>
-      <c r="B60" s="23" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="11"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="11"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="20"/>
-      <c r="B62" s="23" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="11"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
